--- a/data/trans_orig/Q17H_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17H_R-Habitat-trans_orig.xlsx
@@ -704,33 +704,33 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.751066010394386</v>
+        <v>7.743020495169861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.035395210304685</v>
+        <v>5.980272867277794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.616263670951616</v>
+        <v>1.612098467266028</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>3.563032188350274</v>
+        <v>3.589087539078121</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.686947455838758</v>
+        <v>3.69467962439396</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.325744644192004</v>
+        <v>1.330246623710675</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>5.855634061969458</v>
+        <v>5.871374306598161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.071118981422741</v>
+        <v>5.030453926538064</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.526040271099951</v>
+        <v>1.517836156481185</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.14860193539766</v>
+        <v>10.12520313703518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.418424626280542</v>
+        <v>8.50624777473768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.999416262344177</v>
+        <v>2.00515280883035</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>5.244513605025324</v>
+        <v>5.139546391036226</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.182855629808644</v>
+        <v>5.19331283671989</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.661101736173648</v>
+        <v>1.660638144345564</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>7.261937211026413</v>
+        <v>7.358113660157874</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.410269709359066</v>
+        <v>6.47065048715937</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.783696021650117</v>
+        <v>1.781667951096815</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -828,33 +828,33 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.146269728109619</v>
+        <v>7.147612002412959</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.536616910669851</v>
+        <v>6.507218338712479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.711584839686648</v>
+        <v>1.719645020435515</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>3.853983808750457</v>
+        <v>3.8879229336771</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.651486078909722</v>
+        <v>3.685585403444874</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.563265408327534</v>
+        <v>1.56109267989365</v>
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>5.644727843475878</v>
+        <v>5.632356701411235</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.304880764252751</v>
+        <v>5.256799426158679</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.679385428930128</v>
+        <v>1.679148546221567</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -866,33 +866,33 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.348344271664672</v>
+        <v>9.28154923050824</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.48927100883345</v>
+        <v>8.496928779226858</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.068815028384193</v>
+        <v>2.058750217453215</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>5.026030041423139</v>
+        <v>5.071134153405978</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.738576471948979</v>
+        <v>4.768947537499462</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.880303833263514</v>
+        <v>1.87186765172399</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>6.961840225279115</v>
+        <v>6.862618330183033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.401987190796435</v>
+        <v>6.369048100514526</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.895642336916439</v>
+        <v>1.901503148440227</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.453902729994036</v>
+        <v>8.440383805170518</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.325206139016763</v>
+        <v>7.325207203105397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.751102725570917</v>
+        <v>1.753619355377025</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>5.611127164546897</v>
+        <v>5.594402661266107</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.239610735814509</v>
+        <v>4.216411144488789</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.641048110878842</v>
+        <v>1.643998904146868</v>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>7.247854207893172</v>
+        <v>7.22001273601556</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.989399066211983</v>
+        <v>6.016163587160021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.740234903466509</v>
+        <v>1.733273961219729</v>
       </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
@@ -990,33 +990,33 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.85604544382257</v>
+        <v>10.97295782772604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.783651265900039</v>
+        <v>9.844767624307545</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.170814720574113</v>
+        <v>2.15469534641351</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>7.842915883139553</v>
+        <v>7.676343505346661</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.638728811300366</v>
+        <v>7.500278678871248</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.986395987528883</v>
+        <v>1.981419065073977</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>8.894617245178638</v>
+        <v>8.849272299368707</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.977518886947872</v>
+        <v>7.970180141546527</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.007174556179636</v>
+        <v>1.997057578323379</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1076,33 +1076,33 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.860839262930674</v>
+        <v>7.938232076217718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.747737819803191</v>
+        <v>7.769238265887089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.785401709089018</v>
+        <v>1.780526379861116</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>4.808791780017169</v>
+        <v>4.806379909818239</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.842109977546075</v>
+        <v>3.767072961910635</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.728051744586187</v>
+        <v>1.734926728589769</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>6.474892983052162</v>
+        <v>6.447492605463808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.8242570225931</v>
+        <v>5.837055740061842</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.794573296643661</v>
+        <v>1.800772314039336</v>
       </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
@@ -1114,33 +1114,33 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.51460248767903</v>
+        <v>10.98778192498257</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.630492073261</v>
+        <v>11.13156430902891</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.126767990105607</v>
+        <v>2.101182900657697</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>5.912252653567726</v>
+        <v>5.977453869272545</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.097123989570114</v>
+        <v>5.083116839194963</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.050090590083519</v>
+        <v>2.049258981438112</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>7.969486361580357</v>
+        <v>7.947803175934658</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.457473494979576</v>
+        <v>7.402907728517664</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.037594988950295</v>
+        <v>2.046585632718156</v>
       </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
@@ -1200,33 +1200,33 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.216570895027264</v>
+        <v>8.147129043260586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.391163646933366</v>
+        <v>7.366941173571321</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.797583588350145</v>
+        <v>1.802356697605298</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>4.736718484921505</v>
+        <v>4.718833175880889</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.122669981878345</v>
+        <v>4.105135118769286</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.658919989207269</v>
+        <v>1.657877631063076</v>
       </c>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>6.548130770793724</v>
+        <v>6.560459234169842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.832921463963967</v>
+        <v>5.833079764267458</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.750684484753795</v>
+        <v>1.7535148466742</v>
       </c>
       <c r="N17" s="5" t="inlineStr"/>
     </row>
@@ -1238,33 +1238,33 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.395953622857045</v>
+        <v>9.30262151815894</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.645355646041283</v>
+        <v>8.669171493167481</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.980490016430622</v>
+        <v>1.990117872396105</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>5.451199558129949</v>
+        <v>5.483828618893726</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.987737821792185</v>
+        <v>5.015486065703578</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.824637445198126</v>
+        <v>1.816892722745841</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>7.277165550489153</v>
+        <v>7.244975590725445</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.577112931059202</v>
+        <v>6.556577625579346</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.876608455406889</v>
+        <v>1.87917504466325</v>
       </c>
       <c r="N18" s="5" t="inlineStr"/>
     </row>
